--- a/excel_files/6.4.1.2.xlsx
+++ b/excel_files/6.4.1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -737,7 +737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -807,6 +809,9 @@
       <c r="M3" s="2">
         <v>2019</v>
       </c>
+      <c r="N3" s="2">
+        <v>2020</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9" t="s">
@@ -869,6 +874,9 @@
       <c r="M5" s="14">
         <v>2242.8000000000002</v>
       </c>
+      <c r="N5" s="14">
+        <v>2198.6999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
@@ -910,6 +918,9 @@
       <c r="M6" s="15">
         <v>104.8</v>
       </c>
+      <c r="N6" s="15">
+        <v>132.69999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -951,6 +962,9 @@
       <c r="M7" s="15">
         <v>254.4</v>
       </c>
+      <c r="N7" s="15">
+        <v>242.9</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
@@ -992,6 +1006,9 @@
       <c r="M8" s="15">
         <v>199.8</v>
       </c>
+      <c r="N8" s="15">
+        <v>203.3</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
@@ -1033,6 +1050,9 @@
       <c r="M9" s="15">
         <v>200.1</v>
       </c>
+      <c r="N9" s="15">
+        <v>202.8</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
@@ -1074,6 +1094,9 @@
       <c r="M10" s="15">
         <v>310</v>
       </c>
+      <c r="N10" s="15">
+        <v>284.7</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="4" t="s">
@@ -1115,6 +1138,9 @@
       <c r="M11" s="15">
         <v>322.3</v>
       </c>
+      <c r="N11" s="15">
+        <v>294.89999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="4" t="s">
@@ -1156,6 +1182,9 @@
       <c r="M12" s="15">
         <v>818.9</v>
       </c>
+      <c r="N12" s="15">
+        <v>802.5</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
@@ -1197,6 +1226,9 @@
       <c r="M13" s="15">
         <v>25.8</v>
       </c>
+      <c r="N13" s="15">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="4" t="s">
@@ -1236,6 +1268,9 @@
         <v>6.8</v>
       </c>
       <c r="M14" s="15">
+        <v>6.8</v>
+      </c>
+      <c r="N14" s="15">
         <v>6.8</v>
       </c>
     </row>
@@ -1259,6 +1294,7 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="20" t="s">
@@ -1300,8 +1336,11 @@
       <c r="M16" s="14">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="14">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="21" t="s">
         <v>31</v>
       </c>
@@ -1341,8 +1380,11 @@
       <c r="M17" s="17">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="17">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="21" t="s">
         <v>32</v>
       </c>
@@ -1382,8 +1424,11 @@
       <c r="M18" s="17">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="17">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="21" t="s">
         <v>33</v>
       </c>
@@ -1423,8 +1468,11 @@
       <c r="M19" s="17">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="17">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -1464,8 +1512,11 @@
       <c r="M20" s="17">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="17">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="21" t="s">
         <v>38</v>
       </c>
@@ -1505,8 +1556,11 @@
       <c r="M21" s="17">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="17">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="21" t="s">
         <v>35</v>
       </c>
@@ -1546,8 +1600,11 @@
       <c r="M22" s="17">
         <v>31.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="17">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="21" t="s">
         <v>36</v>
       </c>
@@ -1587,8 +1644,11 @@
       <c r="M23" s="17">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="17">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
@@ -1628,8 +1688,11 @@
       <c r="M24" s="17">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1">
+      <c r="N24" s="17">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -1668,6 +1731,9 @@
       </c>
       <c r="M25" s="19">
         <v>11.9</v>
+      </c>
+      <c r="N25" s="19">
+        <v>11.6</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/6.4.1.2.xlsx
+++ b/excel_files/6.4.1.2.xlsx
@@ -738,7 +738,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,6 +812,9 @@
       <c r="N3" s="2">
         <v>2020</v>
       </c>
+      <c r="O3" s="2">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9" t="s">
@@ -877,6 +880,9 @@
       <c r="N5" s="14">
         <v>2198.6999999999998</v>
       </c>
+      <c r="O5" s="14">
+        <v>2148.1999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
@@ -921,6 +927,9 @@
       <c r="N6" s="15">
         <v>132.69999999999999</v>
       </c>
+      <c r="O6" s="15">
+        <v>109.5</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
@@ -965,6 +974,9 @@
       <c r="N7" s="15">
         <v>242.9</v>
       </c>
+      <c r="O7" s="15">
+        <v>210.1</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
@@ -1009,6 +1021,9 @@
       <c r="N8" s="15">
         <v>203.3</v>
       </c>
+      <c r="O8" s="15">
+        <v>196</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
@@ -1053,6 +1068,9 @@
       <c r="N9" s="15">
         <v>202.8</v>
       </c>
+      <c r="O9" s="15">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
@@ -1097,6 +1115,9 @@
       <c r="N10" s="15">
         <v>284.7</v>
       </c>
+      <c r="O10" s="15">
+        <v>300.2</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="4" t="s">
@@ -1141,6 +1162,9 @@
       <c r="N11" s="15">
         <v>294.89999999999998</v>
       </c>
+      <c r="O11" s="15">
+        <v>302.89999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="4" t="s">
@@ -1185,6 +1209,9 @@
       <c r="N12" s="15">
         <v>802.5</v>
       </c>
+      <c r="O12" s="15">
+        <v>786</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
@@ -1229,6 +1256,9 @@
       <c r="N13" s="15">
         <v>28.1</v>
       </c>
+      <c r="O13" s="15">
+        <v>27.7</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="4" t="s">
@@ -1271,6 +1301,9 @@
         <v>6.8</v>
       </c>
       <c r="N14" s="15">
+        <v>6.8</v>
+      </c>
+      <c r="O14" s="15">
         <v>6.8</v>
       </c>
     </row>
@@ -1295,6 +1328,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="20" t="s">
@@ -1339,8 +1373,11 @@
       <c r="N16" s="14">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="14">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="21" t="s">
         <v>31</v>
       </c>
@@ -1383,8 +1420,11 @@
       <c r="N17" s="17">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="17">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="21" t="s">
         <v>32</v>
       </c>
@@ -1427,8 +1467,11 @@
       <c r="N18" s="17">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="17">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="21" t="s">
         <v>33</v>
       </c>
@@ -1471,8 +1514,11 @@
       <c r="N19" s="17">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="17">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -1515,8 +1561,11 @@
       <c r="N20" s="17">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="17">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="21" t="s">
         <v>38</v>
       </c>
@@ -1559,8 +1608,11 @@
       <c r="N21" s="17">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="21" t="s">
         <v>35</v>
       </c>
@@ -1603,8 +1655,11 @@
       <c r="N22" s="17">
         <v>30.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="17">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="21" t="s">
         <v>36</v>
       </c>
@@ -1647,8 +1702,11 @@
       <c r="N23" s="17">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="17">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
@@ -1691,8 +1749,11 @@
       <c r="N24" s="17">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1">
+      <c r="O24" s="17">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -1734,6 +1795,9 @@
       </c>
       <c r="N25" s="19">
         <v>11.6</v>
+      </c>
+      <c r="O25" s="19">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/6.4.1.2.xlsx
+++ b/excel_files/6.4.1.2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -175,7 +175,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +296,26 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -371,7 +391,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -433,6 +453,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -735,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,7 +778,7 @@
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
+    <row r="1" spans="1:16" ht="25.5">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -764,12 +794,12 @@
       <c r="G1" s="7"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
@@ -815,8 +845,11 @@
       <c r="O3" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -837,7 +870,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -883,8 +916,11 @@
       <c r="O5" s="14">
         <v>2148.1999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="14">
+        <v>2349.6999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -930,8 +966,11 @@
       <c r="O6" s="15">
         <v>109.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="22">
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -977,8 +1016,11 @@
       <c r="O7" s="15">
         <v>210.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="22">
+        <v>231.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1024,8 +1066,11 @@
       <c r="O8" s="15">
         <v>196</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="22">
+        <v>211.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1071,8 +1116,11 @@
       <c r="O9" s="15">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="22">
+        <v>226.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1118,8 +1166,11 @@
       <c r="O10" s="15">
         <v>300.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="22">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -1165,8 +1216,11 @@
       <c r="O11" s="15">
         <v>302.89999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="22">
+        <v>321.10000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -1212,8 +1266,11 @@
       <c r="O12" s="15">
         <v>786</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="22">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1259,8 +1316,11 @@
       <c r="O13" s="15">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="22">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1306,8 +1366,11 @@
       <c r="O14" s="15">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
@@ -1329,8 +1392,9 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="20" t="s">
         <v>30</v>
       </c>
@@ -1376,8 +1440,11 @@
       <c r="O16" s="14">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="24">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="21" t="s">
         <v>31</v>
       </c>
@@ -1423,8 +1490,11 @@
       <c r="O17" s="17">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="22">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="21" t="s">
         <v>32</v>
       </c>
@@ -1470,8 +1540,11 @@
       <c r="O18" s="17">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="21" t="s">
         <v>33</v>
       </c>
@@ -1517,8 +1590,11 @@
       <c r="O19" s="17">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="22">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
@@ -1564,8 +1640,11 @@
       <c r="O20" s="17">
         <v>30.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="22">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="21" t="s">
         <v>38</v>
       </c>
@@ -1611,8 +1690,11 @@
       <c r="O21" s="17">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="22">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="21" t="s">
         <v>35</v>
       </c>
@@ -1658,8 +1740,11 @@
       <c r="O22" s="17">
         <v>31.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="22">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="21" t="s">
         <v>36</v>
       </c>
@@ -1705,8 +1790,11 @@
       <c r="O23" s="17">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="22">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
@@ -1752,8 +1840,11 @@
       <c r="O24" s="17">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1">
+      <c r="P24" s="22">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -1798,6 +1889,9 @@
       </c>
       <c r="O25" s="19">
         <v>12</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/6.4.1.2.xlsx
+++ b/excel_files/6.4.1.2.xlsx
@@ -112,15 +112,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>6.4.1.2. Потери воды при транспортировке</t>
-  </si>
-  <si>
     <t>6.4.1.2 Ташуудан жоготкон суу</t>
   </si>
   <si>
-    <t>6.4.1.2. Percentage of water loss during transportation</t>
-  </si>
-  <si>
     <t>Кыргыз Республикасы</t>
   </si>
   <si>
@@ -164,6 +158,12 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>6.4.1.2 Потери воды при транспортировке</t>
+  </si>
+  <si>
+    <t>6.4.1.2 Percentage of water loss during transportation</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,13 +780,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.5">
       <c r="A1" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -801,13 +801,13 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="10">
         <v>2010</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>1</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -917,12 +917,12 @@
         <v>2148.1999999999998</v>
       </c>
       <c r="P5" s="14">
-        <v>2349.6999999999998</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -1167,12 +1167,12 @@
         <v>300.2</v>
       </c>
       <c r="P10" s="22">
-        <v>297</v>
+        <v>335.3</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -1441,12 +1441,12 @@
         <v>26.9</v>
       </c>
       <c r="P16" s="24">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>4</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>6</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -1691,12 +1691,12 @@
         <v>24</v>
       </c>
       <c r="P21" s="22">
-        <v>21.5</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>8</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>9</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>11</v>

--- a/excel_files/6.4.1.2.xlsx
+++ b/excel_files/6.4.1.2.xlsx
@@ -765,20 +765,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="37.140625" customWidth="1"/>
+    <col min="1" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5">
+    <row r="1" spans="1:17" ht="25.5">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -794,12 +792,12 @@
       <c r="G1" s="7"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
       <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
@@ -848,8 +846,11 @@
       <c r="P3" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -870,7 +871,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -919,8 +920,11 @@
       <c r="P5" s="14">
         <v>2388</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="14">
+        <v>2385.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -969,8 +973,11 @@
       <c r="P6" s="22">
         <v>103.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="22">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1019,8 +1026,11 @@
       <c r="P7" s="22">
         <v>231.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="22">
+        <v>267.89999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1069,8 +1079,11 @@
       <c r="P8" s="22">
         <v>211.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="22">
+        <v>230.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -1119,8 +1132,11 @@
       <c r="P9" s="22">
         <v>226.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="22">
+        <v>249.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="P10" s="22">
         <v>335.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="22">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1219,8 +1238,11 @@
       <c r="P11" s="22">
         <v>321.10000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="22">
+        <v>334.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -1269,8 +1291,11 @@
       <c r="P12" s="22">
         <v>923</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="22">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1319,8 +1344,11 @@
       <c r="P13" s="22">
         <v>35.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="22">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1369,8 +1397,11 @@
       <c r="P14" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="22">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -1393,8 +1424,9 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>28</v>
       </c>
@@ -1443,8 +1475,11 @@
       <c r="P16" s="24">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="24">
+        <v>26.890545708088244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -1493,8 +1528,11 @@
       <c r="P17" s="22">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="22">
+        <v>15.490056759274875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>30</v>
       </c>
@@ -1543,8 +1581,11 @@
       <c r="P18" s="22">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="22">
+        <v>22.218388220841799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>31</v>
       </c>
@@ -1593,8 +1634,11 @@
       <c r="P19" s="22">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="22">
+        <v>29.614327895683314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="21" t="s">
         <v>32</v>
       </c>
@@ -1643,8 +1687,11 @@
       <c r="P20" s="22">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="22">
+        <v>30.104452089276922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="21" t="s">
         <v>36</v>
       </c>
@@ -1693,8 +1740,11 @@
       <c r="P21" s="22">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="22">
+        <v>21.825966598728439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="21" t="s">
         <v>33</v>
       </c>
@@ -1743,8 +1793,11 @@
       <c r="P22" s="22">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="22">
+        <v>32.351574864874735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="21" t="s">
         <v>34</v>
       </c>
@@ -1793,8 +1846,11 @@
       <c r="P23" s="22">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="22">
+        <v>30.810022297218843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>35</v>
       </c>
@@ -1843,8 +1899,11 @@
       <c r="P24" s="22">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1">
+      <c r="Q24" s="22">
+        <v>29.193884213235311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -1892,6 +1951,9 @@
       </c>
       <c r="P25" s="25" t="s">
         <v>26</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>7.4362892319581295</v>
       </c>
     </row>
   </sheetData>
